--- a/data/trans_orig/MCS12_SP-Edad-trans_orig.xlsx
+++ b/data/trans_orig/MCS12_SP-Edad-trans_orig.xlsx
@@ -663,7 +663,7 @@
         <v>54.1938178317339</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>54.05243871643074</v>
+        <v>54.05243871643072</v>
       </c>
       <c r="E4" s="5" t="n">
         <v>54.44374633956433</v>
@@ -672,7 +672,7 @@
         <v>55.04083605284494</v>
       </c>
       <c r="G4" s="5" t="n">
-        <v>52.60545968547906</v>
+        <v>52.60545968547907</v>
       </c>
       <c r="H4" s="5" t="n">
         <v>52.60678713497702</v>
@@ -681,7 +681,7 @@
         <v>53.46735424632157</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>52.64414986979752</v>
+        <v>52.64414986979751</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>53.42158776325196</v>
@@ -704,40 +704,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>53.65217370397189</v>
+        <v>53.66317903555237</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>53.43653644157588</v>
+        <v>53.48093174019449</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>53.83090795200615</v>
+        <v>53.86621435367339</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>53.96461335393661</v>
+        <v>54.01807524418139</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>51.97202086593393</v>
+        <v>51.9170574253956</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>51.85878079457057</v>
+        <v>51.78606496620183</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>52.80383092681341</v>
+        <v>52.80476677342634</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>51.1655556708962</v>
+        <v>51.23868310182002</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>53.02338963283725</v>
+        <v>52.98725715541175</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>52.89360942113148</v>
+        <v>52.83764288112728</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>53.54168343234311</v>
+        <v>53.50099701718476</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>53.07819813417854</v>
+        <v>53.07773607647109</v>
       </c>
     </row>
     <row r="6">
@@ -748,40 +748,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>54.61793865296438</v>
+        <v>54.62193449886494</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>54.57079560819215</v>
+        <v>54.54778572043327</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>54.92596011847289</v>
+        <v>54.9671546938195</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>55.80761224303927</v>
+        <v>55.79375540253253</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>53.14465761991497</v>
+        <v>53.14938589356805</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>53.30527791814441</v>
+        <v>53.28435600875886</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>54.04862775377969</v>
+        <v>54.0083503910362</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>53.8746494042927</v>
+        <v>53.8322087525984</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>53.76711379763851</v>
+        <v>53.77329432385966</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>53.80480534697347</v>
+        <v>53.81689930713181</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>54.33249929454366</v>
+        <v>54.34225521667788</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>54.62941483871866</v>
+        <v>54.60340444891739</v>
       </c>
     </row>
     <row r="7">
@@ -799,19 +799,19 @@
         <v>53.54062392326973</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>53.09246676686141</v>
+        <v>53.09246676686143</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>52.89399548260531</v>
+        <v>52.89399548260532</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>53.75044638335135</v>
+        <v>53.75044638335134</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>51.28167001348246</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>51.3979843713158</v>
+        <v>51.39798437131579</v>
       </c>
       <c r="I7" s="5" t="n">
         <v>52.66630729441831</v>
@@ -823,10 +823,10 @@
         <v>52.50243145445779</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>52.29540115939707</v>
+        <v>52.29540115939705</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>52.78281021490059</v>
+        <v>52.78281021490058</v>
       </c>
       <c r="N7" s="5" t="n">
         <v>53.06944870901138</v>
@@ -840,40 +840,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>53.05040026674402</v>
+        <v>53.00233807167012</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>52.53511847960927</v>
+        <v>52.52667281677436</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>52.2151294502347</v>
+        <v>52.23001621633711</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>52.73276335259003</v>
+        <v>52.66066152457274</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>50.59115243338646</v>
+        <v>50.55183041222485</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>50.63926478863575</v>
+        <v>50.72074897487109</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>52.0953030039987</v>
+        <v>52.00354520871708</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>51.50593320108393</v>
+        <v>51.51564865834688</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>52.09080922773559</v>
+        <v>52.09314717099798</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>51.80629999010185</v>
+        <v>51.83760261561382</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>52.37256781612427</v>
+        <v>52.34848418846098</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>52.34430488882489</v>
+        <v>52.39378100791532</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>53.94488193828633</v>
+        <v>53.93521774707712</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>53.53917049210816</v>
+        <v>53.56545798914079</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>53.38391210396393</v>
+        <v>53.41271640301227</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>54.49751474516903</v>
+        <v>54.58164201436353</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>52.02767700846899</v>
+        <v>51.93715496708663</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>52.08274187563993</v>
+        <v>52.05921074204279</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>53.19211338060207</v>
+        <v>53.21516828208163</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>53.19528623619555</v>
+        <v>53.2367488431186</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>52.84981857682721</v>
+        <v>52.85680368883123</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>52.68560294875889</v>
+        <v>52.70852951865236</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>53.19889947468747</v>
+        <v>53.17091857492519</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>53.62699703101932</v>
+        <v>53.62620512877565</v>
       </c>
     </row>
     <row r="10">
@@ -938,22 +938,22 @@
         <v>51.96179460837678</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>52.65558131362238</v>
+        <v>52.65558131362237</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>53.10196619336252</v>
+        <v>53.10196619336251</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>50.99037119402522</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>49.44667626771619</v>
+        <v>49.44667626771617</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>51.9288625784427</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>52.29031478580495</v>
+        <v>52.29031478580496</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>51.62113077180923</v>
@@ -976,40 +976,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>51.69082321427653</v>
+        <v>51.72775775434064</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>51.38019797397403</v>
+        <v>51.27226357370739</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>52.02980991145665</v>
+        <v>52.06921899346337</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>52.26214751460951</v>
+        <v>52.27368840699325</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>50.3585895320962</v>
+        <v>50.36452206815209</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>48.64584984457269</v>
+        <v>48.69313602794064</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>51.33741056818885</v>
+        <v>51.23615174503449</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>51.71071271212598</v>
+        <v>51.72833986085067</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>51.16518851410765</v>
+        <v>51.18425042200034</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>50.12501440894206</v>
+        <v>50.11701693733502</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>51.84745789465069</v>
+        <v>51.86372274378027</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>52.2391936123129</v>
+        <v>52.19769952971003</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>52.89251341259878</v>
+        <v>52.85980005281939</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>52.59117538333508</v>
+        <v>52.50958235722017</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>53.12157031599678</v>
+        <v>53.18151149983991</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>53.7511033765133</v>
+        <v>53.69394062340161</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>51.52063216394412</v>
+        <v>51.54802638461233</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>50.19077339835414</v>
+        <v>50.19713589651322</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>52.55856813667651</v>
+        <v>52.49253805584701</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>52.84679215115939</v>
+        <v>52.74142117065988</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>51.99751614955706</v>
+        <v>52.00009079440036</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>51.1600580872131</v>
+        <v>51.15629450603424</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>52.65354389668099</v>
+        <v>52.74573980093939</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>53.14376043618972</v>
+        <v>53.08125208272966</v>
       </c>
     </row>
     <row r="13">
@@ -1074,13 +1074,13 @@
         <v>51.75340988099789</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>51.59428211319695</v>
+        <v>51.59428211319694</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>52.41701848169664</v>
+        <v>52.41701848169663</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>49.86532024442168</v>
+        <v>49.86532024442167</v>
       </c>
       <c r="H13" s="5" t="n">
         <v>48.52387716870305</v>
@@ -1089,7 +1089,7 @@
         <v>50.17507176417477</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>50.87743082322573</v>
+        <v>50.87743082322574</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>51.16182865380372</v>
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>51.74807249942088</v>
+        <v>51.74493195576439</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>51.04351722621783</v>
+        <v>50.99748119838372</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>50.87665028721514</v>
+        <v>50.88982238294855</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>51.74882230217298</v>
+        <v>51.72927209101041</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>49.12050891338416</v>
+        <v>49.08902875319727</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>47.60177638643998</v>
+        <v>47.72890248901313</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>49.36108353880731</v>
+        <v>49.48756655936332</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>50.3216239531645</v>
+        <v>50.32124838078135</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>50.6609510696824</v>
+        <v>50.63260375462581</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>49.5794274474162</v>
+        <v>49.53143810081632</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>50.34815735918134</v>
+        <v>50.30427173021061</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>51.20110485308204</v>
+        <v>51.13406568852259</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>53.03057998940787</v>
+        <v>53.04047251427708</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>52.40976796241596</v>
+        <v>52.35663322849592</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>52.25867224705064</v>
+        <v>52.23050577970417</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>53.02643350882386</v>
+        <v>53.00798305881167</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>50.7212449327145</v>
+        <v>50.57541150774416</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>49.40466676404083</v>
+        <v>49.46866567979725</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>50.84068578124133</v>
+        <v>50.81239857543412</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>51.43223651004048</v>
+        <v>51.38467314928021</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>51.63234524757572</v>
+        <v>51.64890332157894</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>50.73879127771056</v>
+        <v>50.68753940178072</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>51.3634488716374</v>
+        <v>51.3526597283791</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>52.00264261927656</v>
+        <v>52.01044297459828</v>
       </c>
     </row>
     <row r="16">
@@ -1207,16 +1207,16 @@
         <v>51.54865181206029</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>51.0295695536696</v>
+        <v>51.02956955366959</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>52.09778222165854</v>
+        <v>52.09778222165853</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>51.71166128337897</v>
       </c>
       <c r="G16" s="5" t="n">
-        <v>49.81269000917977</v>
+        <v>49.81269000917975</v>
       </c>
       <c r="H16" s="5" t="n">
         <v>47.66825372141958</v>
@@ -1225,19 +1225,19 @@
         <v>48.64414361031331</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>49.38519794830431</v>
+        <v>49.3851979483043</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>50.66170636671504</v>
+        <v>50.66170636671505</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>49.3137154776786</v>
+        <v>49.31371547767858</v>
       </c>
       <c r="M16" s="5" t="n">
         <v>50.3374262643407</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>50.54439297613645</v>
+        <v>50.54439297613646</v>
       </c>
     </row>
     <row r="17">
@@ -1248,40 +1248,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>50.75840727267404</v>
+        <v>50.73645832482382</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>50.1923714360099</v>
+        <v>50.18841329972061</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>51.15614647227015</v>
+        <v>51.18494761262389</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>50.99162005092388</v>
+        <v>50.9082651837498</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>48.96160363944797</v>
+        <v>48.86685792945455</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>46.65852706595388</v>
+        <v>46.64639411450784</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>47.54270093713001</v>
+        <v>47.54832844944983</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>48.70444120886767</v>
+        <v>48.70908819447789</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>50.0472767420459</v>
+        <v>50.01128034744894</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>48.59412291462589</v>
+        <v>48.6404191318894</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>49.659160796454</v>
+        <v>49.64072476594805</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>50.11264698224683</v>
+        <v>50.05726007564938</v>
       </c>
     </row>
     <row r="18">
@@ -1292,40 +1292,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>52.28462010538355</v>
+        <v>52.32251098558714</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>51.82653123605596</v>
+        <v>51.84052526584389</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>52.79802269223443</v>
+        <v>52.78359506368645</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>52.37752140704957</v>
+        <v>52.33228776197078</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>50.72329985816844</v>
+        <v>50.58903966795091</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>48.76977802598026</v>
+        <v>48.61843165972741</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>49.537979599906</v>
+        <v>49.6173346435078</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>49.96778631000502</v>
+        <v>50.0169800386785</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>51.22962781410195</v>
+        <v>51.25310899410328</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>49.97667828779961</v>
+        <v>49.97558249802458</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>50.95364990211182</v>
+        <v>50.9511283870336</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>51.00265527517821</v>
+        <v>51.00992811600612</v>
       </c>
     </row>
     <row r="19">
@@ -1343,7 +1343,7 @@
         <v>50.75908205731113</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>51.15191171144773</v>
+        <v>51.15191171144772</v>
       </c>
       <c r="E19" s="5" t="n">
         <v>52.19393584069473</v>
@@ -1352,28 +1352,28 @@
         <v>51.71246478336393</v>
       </c>
       <c r="G19" s="5" t="n">
-        <v>49.74831395356156</v>
+        <v>49.74831395356157</v>
       </c>
       <c r="H19" s="5" t="n">
         <v>47.77560341147852</v>
       </c>
       <c r="I19" s="5" t="n">
-        <v>48.67618987725598</v>
+        <v>48.67618987725596</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>49.76993323084989</v>
+        <v>49.76993323084987</v>
       </c>
       <c r="K19" s="5" t="n">
-        <v>50.21365723261864</v>
+        <v>50.21365723261865</v>
       </c>
       <c r="L19" s="5" t="n">
         <v>49.35132160098721</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>50.32778546023963</v>
+        <v>50.32778546023964</v>
       </c>
       <c r="N19" s="5" t="n">
-        <v>50.7005156309338</v>
+        <v>50.70051563093379</v>
       </c>
     </row>
     <row r="20">
@@ -1384,40 +1384,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>49.73962650105817</v>
+        <v>49.70059640001104</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>49.9618171370898</v>
+        <v>49.99932878129334</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>51.39431712795317</v>
+        <v>51.21303079757859</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>50.98775366065347</v>
+        <v>51.01321245432406</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>48.71238268392849</v>
+        <v>48.64221674372051</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>46.62547157295147</v>
+        <v>46.68391411254348</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>47.55473947952771</v>
+        <v>47.54167173887051</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>49.03283034319754</v>
+        <v>48.98677501011493</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>49.43710600198337</v>
+        <v>49.48095104978174</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>48.54419555685531</v>
+        <v>48.52060067342432</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>49.55614264738387</v>
+        <v>49.58581237425689</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>50.17560064392863</v>
+        <v>50.18462591206259</v>
       </c>
     </row>
     <row r="21">
@@ -1428,40 +1428,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>51.69259925584389</v>
+        <v>51.70781977282152</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>52.17211996692367</v>
+        <v>52.21707391720515</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>53.1011192086093</v>
+        <v>52.95519433390025</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>52.36161152867995</v>
+        <v>52.38407170342107</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>50.67982921261626</v>
+        <v>50.70173644453546</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>48.92448925273613</v>
+        <v>49.01100041768807</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>49.77939438102766</v>
+        <v>49.84543542749664</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>50.50139331091907</v>
+        <v>50.43750120328924</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>50.9005722649965</v>
+        <v>50.84092285419963</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>50.1227537942102</v>
+        <v>50.12227837977289</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>51.06087309809683</v>
+        <v>51.01265586876695</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>51.1670282298783</v>
+        <v>51.17196331463628</v>
       </c>
     </row>
     <row r="22">
@@ -1476,13 +1476,13 @@
         </is>
       </c>
       <c r="C22" s="5" t="n">
-        <v>50.67819054204773</v>
+        <v>50.67819054204774</v>
       </c>
       <c r="D22" s="5" t="n">
         <v>49.36201494544505</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>50.69348370737423</v>
+        <v>50.69348370737424</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>50.39476468280208</v>
@@ -1497,7 +1497,7 @@
         <v>47.66549031266028</v>
       </c>
       <c r="J22" s="5" t="n">
-        <v>47.29047838983493</v>
+        <v>47.29047838983492</v>
       </c>
       <c r="K22" s="5" t="n">
         <v>50.51439297387785</v>
@@ -1520,40 +1520,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>49.42720364258521</v>
+        <v>49.22298685873865</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>47.70852608650886</v>
+        <v>47.88981656825608</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>49.54858781840689</v>
+        <v>49.45074627344292</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>49.34153011341054</v>
+        <v>49.36258865200301</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>49.23347194228285</v>
+        <v>49.06377486217576</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>44.69065272591005</v>
+        <v>44.61026091038787</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>46.22335825843977</v>
+        <v>46.2345589665674</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>46.48144831431824</v>
+        <v>46.46584564963013</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>49.61243424927242</v>
+        <v>49.59288282660064</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>46.28063911227125</v>
+        <v>46.16443093647778</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>47.84458966604226</v>
+        <v>47.87983462694096</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>47.90877955739636</v>
+        <v>47.95161153466059</v>
       </c>
     </row>
     <row r="24">
@@ -1564,40 +1564,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>51.81664515307465</v>
+        <v>51.88442808432389</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>50.65110157486757</v>
+        <v>50.70394371812877</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>51.78470323884577</v>
+        <v>51.72257870510069</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>51.27038567074673</v>
+        <v>51.3103481739257</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>51.61105009264759</v>
+        <v>51.58118126890687</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>47.08685208490805</v>
+        <v>47.07699919631809</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>49.03388376606089</v>
+        <v>49.05608102196614</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>48.12331733351952</v>
+        <v>48.04008956667277</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>51.40027008735561</v>
+        <v>51.33555913592007</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>48.12811670037527</v>
+        <v>48.10481895600826</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>49.7792200767722</v>
+        <v>49.81135084067025</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>49.14867043539733</v>
+        <v>49.14622388699527</v>
       </c>
     </row>
     <row r="25">
@@ -1615,19 +1615,19 @@
         <v>52.55804277496271</v>
       </c>
       <c r="D25" s="5" t="n">
-        <v>52.04860487474579</v>
+        <v>52.0486048747458</v>
       </c>
       <c r="E25" s="5" t="n">
         <v>52.44347057430083</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>52.6446789507409</v>
+        <v>52.64467895074091</v>
       </c>
       <c r="G25" s="5" t="n">
         <v>50.77200480067182</v>
       </c>
       <c r="H25" s="5" t="n">
-        <v>49.22446683611032</v>
+        <v>49.22446683611031</v>
       </c>
       <c r="I25" s="5" t="n">
         <v>50.60832187030361</v>
@@ -1656,40 +1656,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>52.28462533983519</v>
+        <v>52.29649153240307</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>51.76442297176563</v>
+        <v>51.78342815579903</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>52.14736877867387</v>
+        <v>52.17271222632586</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>52.35537262798388</v>
+        <v>52.33762702644714</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>50.44993439366063</v>
+        <v>50.46703393800826</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>48.83425558812782</v>
+        <v>48.89682770956298</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>50.26984022034812</v>
+        <v>50.27019150693313</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>50.38151487727997</v>
+        <v>50.37176261345851</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>51.43559183495859</v>
+        <v>51.46247667178969</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>50.36583621687375</v>
+        <v>50.37509197055565</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>51.29129804047871</v>
+        <v>51.31260490159671</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>51.43254738585286</v>
+        <v>51.43239893716463</v>
       </c>
     </row>
     <row r="27">
@@ -1700,40 +1700,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>52.77406758474165</v>
+        <v>52.78753820284867</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>52.32120007801576</v>
+        <v>52.33186322024032</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>52.69804692375975</v>
+        <v>52.72175861556598</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>52.92747356654689</v>
+        <v>52.93060016005115</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>51.04512104303689</v>
+        <v>51.05922725717686</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>49.53304875085944</v>
+        <v>49.57261421938985</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>50.90886128857269</v>
+        <v>50.94169249251926</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>50.94572021439859</v>
+        <v>50.93790061527653</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>51.83642690436615</v>
+        <v>51.8479516222936</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>50.82742345019133</v>
+        <v>50.84973980283029</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>51.72186069319625</v>
+        <v>51.71372846776369</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>51.84757221832731</v>
+        <v>51.85217571725377</v>
       </c>
     </row>
     <row r="28">
